--- a/3_Evolution_of_phototransduction_and_PRCs/Table_3.2_and_S3.1/Supplementary_Table_S3.1.xlsx
+++ b/3_Evolution_of_phototransduction_and_PRCs/Table_3.2_and_S3.1/Supplementary_Table_S3.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniofleicester-my.sharepoint.com/personal/aa1176_leicester_ac_uk/Documents/Third_Year_Report_Paper/1_Paper/My_Working_dir/Table_3.2_and_S3.1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniofleicester-my.sharepoint.com/personal/aa1176_leicester_ac_uk/Documents/THESIS_WRITING_Clone_current/3_Evolution_of_phototransduction_and_PRCs/Table_3.2_and_S3.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="387" documentId="8_{4B0B4579-EDA9-4BA8-B5F2-D389AA2046B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{858402D4-2365-48E7-B480-6DD91B9472A1}"/>
+  <xr:revisionPtr revIDLastSave="388" documentId="8_{4B0B4579-EDA9-4BA8-B5F2-D389AA2046B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90EC1B95-6642-4BCD-9B11-51353C442A67}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EE1DF405-C756-44B2-AFBA-1178E47394E8}"/>
+    <workbookView minimized="1" xWindow="29940" yWindow="1140" windowWidth="21600" windowHeight="11265" xr2:uid="{EE1DF405-C756-44B2-AFBA-1178E47394E8}"/>
   </bookViews>
   <sheets>
     <sheet name="86sp_busco_category" sheetId="15" r:id="rId1"/>
@@ -956,7 +956,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1073,27 +1073,6 @@
     <xf numFmtId="10" fontId="6" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
@@ -1101,6 +1080,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1433,7 +1434,7 @@
   <dimension ref="B1:O88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K93" sqref="K93"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1456,15 +1457,15 @@
   <sheetData>
     <row r="1" spans="2:15" ht="10.5" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:15" s="2" customFormat="1" ht="47" thickBot="1">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="56"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
       <c r="I2" s="27" t="s">
         <v>126</v>
       </c>
@@ -1479,25 +1480,25 @@
       </c>
     </row>
     <row r="3" spans="2:15" ht="15.5">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="61" t="s">
         <v>31</v>
       </c>
       <c r="I3" s="6" t="s">
@@ -1514,17 +1515,17 @@
       </c>
     </row>
     <row r="4" spans="2:15" ht="15.5">
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
       <c r="I4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="50" t="s">
         <v>190</v>
       </c>
       <c r="K4" s="34" t="s">
@@ -1538,13 +1539,13 @@
       </c>
     </row>
     <row r="5" spans="2:15" ht="15.5">
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
       <c r="I5" s="6" t="s">
         <v>32</v>
       </c>
@@ -1562,13 +1563,13 @@
       </c>
     </row>
     <row r="6" spans="2:15" ht="15.5">
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
       <c r="I6" s="8" t="s">
         <v>33</v>
       </c>
@@ -1587,13 +1588,13 @@
       <c r="O6" s="28"/>
     </row>
     <row r="7" spans="2:15" ht="15.5">
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51" t="s">
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62" t="s">
         <v>36</v>
       </c>
       <c r="I7" s="5" t="s">
@@ -1613,13 +1614,13 @@
       </c>
     </row>
     <row r="8" spans="2:15" ht="15.5">
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
       <c r="I8" s="6" t="s">
         <v>37</v>
       </c>
@@ -1637,13 +1638,13 @@
       </c>
     </row>
     <row r="9" spans="2:15" ht="15.5">
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
       <c r="I9" s="8" t="s">
         <v>38</v>
       </c>
@@ -1661,12 +1662,12 @@
       </c>
     </row>
     <row r="10" spans="2:15" ht="15.5">
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
       <c r="H10" s="4" t="s">
         <v>40</v>
       </c>
@@ -1684,19 +1685,19 @@
       </c>
     </row>
     <row r="11" spans="2:15" ht="15.5">
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51" t="s">
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62" t="s">
         <v>49</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="58" t="s">
+      <c r="J11" s="51" t="s">
         <v>190</v>
       </c>
       <c r="K11" s="36" t="s">
@@ -1707,13 +1708,13 @@
       </c>
     </row>
     <row r="12" spans="2:15" ht="15.5">
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
       <c r="I12" s="8" t="s">
         <v>51</v>
       </c>
@@ -1728,12 +1729,12 @@
       </c>
     </row>
     <row r="13" spans="2:15" ht="15.5">
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
       <c r="H13" s="4" t="s">
         <v>45</v>
       </c>
@@ -1751,19 +1752,19 @@
       </c>
     </row>
     <row r="14" spans="2:15" ht="15.5">
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51" t="s">
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62" t="s">
         <v>42</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="58" t="s">
+      <c r="J14" s="51" t="s">
         <v>190</v>
       </c>
       <c r="K14" s="36" t="s">
@@ -1774,13 +1775,13 @@
       </c>
     </row>
     <row r="15" spans="2:15" ht="15.5">
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
       <c r="I15" s="8" t="s">
         <v>43</v>
       </c>
@@ -1795,12 +1796,12 @@
       </c>
     </row>
     <row r="16" spans="2:15" ht="15.5">
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
       <c r="H16" s="4" t="s">
         <v>47</v>
       </c>
@@ -1818,13 +1819,13 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="15.5">
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51" t="s">
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62" t="s">
         <v>22</v>
       </c>
       <c r="I17" s="5" t="s">
@@ -1841,13 +1842,13 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="15.5">
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
       <c r="I18" s="6" t="s">
         <v>28</v>
       </c>
@@ -1862,13 +1863,13 @@
       </c>
     </row>
     <row r="19" spans="2:12" ht="15.5">
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
       <c r="I19" s="6" t="s">
         <v>23</v>
       </c>
@@ -1883,13 +1884,13 @@
       </c>
     </row>
     <row r="20" spans="2:12" ht="15.5">
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
       <c r="I20" s="8" t="s">
         <v>140</v>
       </c>
@@ -1904,19 +1905,19 @@
       </c>
     </row>
     <row r="21" spans="2:12" ht="15.5">
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="4" t="s">
         <v>29</v>
       </c>
       <c r="I21" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="59" t="s">
+      <c r="J21" s="64" t="s">
         <v>190</v>
       </c>
       <c r="K21" s="37" t="s">
@@ -1927,22 +1928,22 @@
       </c>
     </row>
     <row r="22" spans="2:12" ht="15.5">
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
       <c r="H22" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I22" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="59" t="s">
+      <c r="J22" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="K22" s="60" t="s">
+      <c r="K22" s="53" t="s">
         <v>191</v>
       </c>
       <c r="L22" s="14">
@@ -1950,22 +1951,22 @@
       </c>
     </row>
     <row r="23" spans="2:12" ht="15.5">
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51" t="s">
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62" t="s">
         <v>18</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="58" t="s">
+      <c r="J23" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="K23" s="61" t="s">
+      <c r="K23" s="54" t="s">
         <v>191</v>
       </c>
       <c r="L23" s="15">
@@ -1973,17 +1974,17 @@
       </c>
     </row>
     <row r="24" spans="2:12" ht="15.5">
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
       <c r="I24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J24" s="62" t="s">
+      <c r="J24" s="55" t="s">
         <v>190</v>
       </c>
       <c r="K24" s="35" t="s">
@@ -1994,22 +1995,22 @@
       </c>
     </row>
     <row r="25" spans="2:12" ht="15.5">
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
       <c r="H25" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I25" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J25" s="59" t="s">
+      <c r="J25" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="K25" s="60" t="s">
+      <c r="K25" s="53" t="s">
         <v>191</v>
       </c>
       <c r="L25" s="14">
@@ -2017,15 +2018,15 @@
       </c>
     </row>
     <row r="26" spans="2:12" ht="15.5">
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51" t="s">
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="51"/>
+      <c r="H26" s="62"/>
       <c r="I26" s="5" t="s">
         <v>64</v>
       </c>
@@ -2040,13 +2041,13 @@
       </c>
     </row>
     <row r="27" spans="2:12" ht="15.5">
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
       <c r="I27" s="6" t="s">
         <v>63</v>
       </c>
@@ -2061,13 +2062,13 @@
       </c>
     </row>
     <row r="28" spans="2:12" ht="15.5">
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
       <c r="I28" s="6" t="s">
         <v>62</v>
       </c>
@@ -2082,13 +2083,13 @@
       </c>
     </row>
     <row r="29" spans="2:12" ht="15.5">
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
       <c r="I29" s="6" t="s">
         <v>57</v>
       </c>
@@ -2103,13 +2104,13 @@
       </c>
     </row>
     <row r="30" spans="2:12" ht="15.5">
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
       <c r="I30" s="6" t="s">
         <v>61</v>
       </c>
@@ -2124,13 +2125,13 @@
       </c>
     </row>
     <row r="31" spans="2:12" ht="15.5">
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
       <c r="I31" s="6" t="s">
         <v>60</v>
       </c>
@@ -2145,13 +2146,13 @@
       </c>
     </row>
     <row r="32" spans="2:12" ht="15.5">
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
       <c r="I32" s="6" t="s">
         <v>59</v>
       </c>
@@ -2166,13 +2167,13 @@
       </c>
     </row>
     <row r="33" spans="2:12" ht="15.5">
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
       <c r="I33" s="6" t="s">
         <v>58</v>
       </c>
@@ -2187,13 +2188,13 @@
       </c>
     </row>
     <row r="34" spans="2:12" ht="15.5">
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
       <c r="I34" s="6" t="s">
         <v>53</v>
       </c>
@@ -2208,13 +2209,13 @@
       </c>
     </row>
     <row r="35" spans="2:12" ht="15.5">
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
       <c r="I35" s="6" t="s">
         <v>66</v>
       </c>
@@ -2229,13 +2230,13 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="15.5">
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
       <c r="I36" s="6" t="s">
         <v>65</v>
       </c>
@@ -2250,13 +2251,13 @@
       </c>
     </row>
     <row r="37" spans="2:12" ht="15.5">
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
       <c r="I37" s="6" t="s">
         <v>55</v>
       </c>
@@ -2271,13 +2272,13 @@
       </c>
     </row>
     <row r="38" spans="2:12" ht="15.5">
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
       <c r="I38" s="6" t="s">
         <v>56</v>
       </c>
@@ -2292,20 +2293,20 @@
       </c>
     </row>
     <row r="39" spans="2:12" ht="15.5">
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
       <c r="I39" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="J39" s="62" t="s">
+      <c r="J39" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="K39" s="63" t="s">
+      <c r="K39" s="56" t="s">
         <v>191</v>
       </c>
       <c r="L39" s="12">
@@ -2313,19 +2314,19 @@
       </c>
     </row>
     <row r="40" spans="2:12" ht="15.5">
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51" t="s">
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="H40" s="51"/>
+      <c r="H40" s="62"/>
       <c r="I40" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="J40" s="58" t="s">
+      <c r="J40" s="51" t="s">
         <v>190</v>
       </c>
       <c r="K40" s="36" t="s">
@@ -2336,20 +2337,20 @@
       </c>
     </row>
     <row r="41" spans="2:12" ht="15.5">
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
       <c r="I41" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="J41" s="62" t="s">
+      <c r="J41" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="K41" s="63" t="s">
+      <c r="K41" s="56" t="s">
         <v>191</v>
       </c>
       <c r="L41" s="9">
@@ -2357,15 +2358,15 @@
       </c>
     </row>
     <row r="42" spans="2:12" ht="15.5">
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51" t="s">
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="H42" s="51"/>
+      <c r="H42" s="62"/>
       <c r="I42" s="5" t="s">
         <v>78</v>
       </c>
@@ -2380,13 +2381,13 @@
       </c>
     </row>
     <row r="43" spans="2:12" ht="15.5">
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
       <c r="I43" s="6" t="s">
         <v>77</v>
       </c>
@@ -2401,13 +2402,13 @@
       </c>
     </row>
     <row r="44" spans="2:12" ht="15.5">
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="62"/>
       <c r="I44" s="6" t="s">
         <v>79</v>
       </c>
@@ -2422,13 +2423,13 @@
       </c>
     </row>
     <row r="45" spans="2:12" ht="15.5">
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
       <c r="I45" s="6" t="s">
         <v>74</v>
       </c>
@@ -2443,13 +2444,13 @@
       </c>
     </row>
     <row r="46" spans="2:12" ht="15.5">
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
       <c r="I46" s="6" t="s">
         <v>75</v>
       </c>
@@ -2464,13 +2465,13 @@
       </c>
     </row>
     <row r="47" spans="2:12" ht="15.5">
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
       <c r="I47" s="6" t="s">
         <v>76</v>
       </c>
@@ -2485,17 +2486,17 @@
       </c>
     </row>
     <row r="48" spans="2:12" ht="15.5">
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="62"/>
       <c r="I48" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="J48" s="62" t="s">
+      <c r="J48" s="55" t="s">
         <v>190</v>
       </c>
       <c r="K48" s="35" t="s">
@@ -2506,15 +2507,15 @@
       </c>
     </row>
     <row r="49" spans="2:12" ht="15.5">
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51" t="s">
+      <c r="B49" s="62"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="H49" s="51"/>
+      <c r="H49" s="62"/>
       <c r="I49" s="5" t="s">
         <v>68</v>
       </c>
@@ -2529,13 +2530,13 @@
       </c>
     </row>
     <row r="50" spans="2:12" ht="15.5">
-      <c r="B50" s="51"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="62"/>
       <c r="I50" s="8" t="s">
         <v>69</v>
       </c>
@@ -2550,19 +2551,19 @@
       </c>
     </row>
     <row r="51" spans="2:12" ht="15.5">
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="51" t="s">
+      <c r="B51" s="62"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="62"/>
       <c r="I51" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J51" s="58" t="s">
+      <c r="J51" s="51" t="s">
         <v>190</v>
       </c>
       <c r="K51" s="36" t="s">
@@ -2573,17 +2574,17 @@
       </c>
     </row>
     <row r="52" spans="2:12" ht="15.5">
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="62"/>
       <c r="I52" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J52" s="57" t="s">
+      <c r="J52" s="50" t="s">
         <v>190</v>
       </c>
       <c r="K52" s="34" t="s">
@@ -2594,17 +2595,17 @@
       </c>
     </row>
     <row r="53" spans="2:12" ht="15.5">
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
       <c r="I53" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="J53" s="57" t="s">
+      <c r="J53" s="50" t="s">
         <v>190</v>
       </c>
       <c r="K53" s="34" t="s">
@@ -2615,17 +2616,17 @@
       </c>
     </row>
     <row r="54" spans="2:12" ht="15.5">
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="51"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="62"/>
+      <c r="H54" s="62"/>
       <c r="I54" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="J54" s="57" t="s">
+      <c r="J54" s="50" t="s">
         <v>190</v>
       </c>
       <c r="K54" s="34" t="s">
@@ -2636,17 +2637,17 @@
       </c>
     </row>
     <row r="55" spans="2:12" ht="15.5">
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="62"/>
       <c r="I55" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="J55" s="57" t="s">
+      <c r="J55" s="50" t="s">
         <v>190</v>
       </c>
       <c r="K55" s="34" t="s">
@@ -2657,13 +2658,13 @@
       </c>
     </row>
     <row r="56" spans="2:12" ht="15.5">
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
       <c r="I56" s="6" t="s">
         <v>141</v>
       </c>
@@ -2678,17 +2679,17 @@
       </c>
     </row>
     <row r="57" spans="2:12" ht="15.5">
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="62"/>
       <c r="I57" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="J57" s="57" t="s">
+      <c r="J57" s="50" t="s">
         <v>190</v>
       </c>
       <c r="K57" s="34" t="s">
@@ -2699,17 +2700,17 @@
       </c>
     </row>
     <row r="58" spans="2:12" ht="15.5">
-      <c r="B58" s="51"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="62"/>
+      <c r="H58" s="62"/>
       <c r="I58" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="J58" s="62" t="s">
+      <c r="J58" s="55" t="s">
         <v>190</v>
       </c>
       <c r="K58" s="35" t="s">
@@ -2720,19 +2721,19 @@
       </c>
     </row>
     <row r="59" spans="2:12" ht="15.5">
-      <c r="B59" s="51"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="51" t="s">
+      <c r="B59" s="62"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="G59" s="51"/>
-      <c r="H59" s="51"/>
+      <c r="G59" s="62"/>
+      <c r="H59" s="62"/>
       <c r="I59" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="J59" s="58" t="s">
+      <c r="J59" s="51" t="s">
         <v>190</v>
       </c>
       <c r="K59" s="36" t="s">
@@ -2743,13 +2744,13 @@
       </c>
     </row>
     <row r="60" spans="2:12" ht="15.5">
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="62"/>
+      <c r="H60" s="62"/>
       <c r="I60" s="6" t="s">
         <v>96</v>
       </c>
@@ -2764,17 +2765,17 @@
       </c>
     </row>
     <row r="61" spans="2:12" ht="15.5">
-      <c r="B61" s="51"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="52"/>
-      <c r="F61" s="51"/>
-      <c r="G61" s="51"/>
-      <c r="H61" s="51"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="62"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="62"/>
+      <c r="G61" s="62"/>
+      <c r="H61" s="62"/>
       <c r="I61" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="J61" s="62" t="s">
+      <c r="J61" s="55" t="s">
         <v>190</v>
       </c>
       <c r="K61" s="35" t="s">
@@ -2785,15 +2786,15 @@
       </c>
     </row>
     <row r="62" spans="2:12" ht="15.5">
-      <c r="B62" s="51"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="51" t="s">
+      <c r="B62" s="62"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="G62" s="51"/>
-      <c r="H62" s="51"/>
+      <c r="G62" s="62"/>
+      <c r="H62" s="62"/>
       <c r="I62" s="13" t="s">
         <v>92</v>
       </c>
@@ -2808,19 +2809,19 @@
       </c>
     </row>
     <row r="63" spans="2:12" ht="15.5">
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="51" t="s">
+      <c r="B63" s="62"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="60"/>
+      <c r="F63" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="G63" s="51"/>
-      <c r="H63" s="51"/>
+      <c r="G63" s="62"/>
+      <c r="H63" s="62"/>
       <c r="I63" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="J63" s="59" t="s">
+      <c r="J63" s="52" t="s">
         <v>190</v>
       </c>
       <c r="K63" s="37" t="s">
@@ -2831,17 +2832,17 @@
       </c>
     </row>
     <row r="64" spans="2:12" ht="15.5">
-      <c r="B64" s="51"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="52" t="s">
+      <c r="B64" s="62"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="F64" s="51" t="s">
+      <c r="F64" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="G64" s="51"/>
-      <c r="H64" s="51"/>
+      <c r="G64" s="62"/>
+      <c r="H64" s="62"/>
       <c r="I64" s="5" t="s">
         <v>103</v>
       </c>
@@ -2856,13 +2857,13 @@
       </c>
     </row>
     <row r="65" spans="2:12" ht="15.5">
-      <c r="B65" s="51"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="52"/>
-      <c r="F65" s="51"/>
-      <c r="G65" s="51"/>
-      <c r="H65" s="51"/>
+      <c r="B65" s="62"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="62"/>
+      <c r="H65" s="62"/>
       <c r="I65" s="6" t="s">
         <v>98</v>
       </c>
@@ -2877,17 +2878,17 @@
       </c>
     </row>
     <row r="66" spans="2:12" ht="15.5">
-      <c r="B66" s="51"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="52"/>
-      <c r="F66" s="51"/>
-      <c r="G66" s="51"/>
-      <c r="H66" s="51"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="62"/>
+      <c r="H66" s="62"/>
       <c r="I66" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="J66" s="57" t="s">
+      <c r="J66" s="50" t="s">
         <v>190</v>
       </c>
       <c r="K66" s="34" t="s">
@@ -2898,13 +2899,13 @@
       </c>
     </row>
     <row r="67" spans="2:12" ht="15.5">
-      <c r="B67" s="51"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="52"/>
-      <c r="F67" s="51"/>
-      <c r="G67" s="51"/>
-      <c r="H67" s="51"/>
+      <c r="B67" s="62"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="60"/>
+      <c r="F67" s="62"/>
+      <c r="G67" s="62"/>
+      <c r="H67" s="62"/>
       <c r="I67" s="6" t="s">
         <v>100</v>
       </c>
@@ -2919,13 +2920,13 @@
       </c>
     </row>
     <row r="68" spans="2:12" ht="15.5">
-      <c r="B68" s="51"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="52"/>
-      <c r="F68" s="51"/>
-      <c r="G68" s="51"/>
-      <c r="H68" s="51"/>
+      <c r="B68" s="62"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="62"/>
+      <c r="H68" s="62"/>
       <c r="I68" s="6" t="s">
         <v>99</v>
       </c>
@@ -2940,13 +2941,13 @@
       </c>
     </row>
     <row r="69" spans="2:12" ht="15.5">
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="52"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="51"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="60"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="62"/>
       <c r="I69" s="8" t="s">
         <v>101</v>
       </c>
@@ -2961,19 +2962,19 @@
       </c>
     </row>
     <row r="70" spans="2:12" ht="15.5">
-      <c r="B70" s="51"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="52"/>
-      <c r="F70" s="51" t="s">
+      <c r="B70" s="62"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="62"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="G70" s="51"/>
-      <c r="H70" s="51"/>
+      <c r="G70" s="62"/>
+      <c r="H70" s="62"/>
       <c r="I70" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="J70" s="58" t="s">
+      <c r="J70" s="51" t="s">
         <v>190</v>
       </c>
       <c r="K70" s="36" t="s">
@@ -2984,13 +2985,13 @@
       </c>
     </row>
     <row r="71" spans="2:12" ht="15.5">
-      <c r="B71" s="51"/>
-      <c r="C71" s="51"/>
-      <c r="D71" s="51"/>
-      <c r="E71" s="52"/>
-      <c r="F71" s="51"/>
-      <c r="G71" s="51"/>
-      <c r="H71" s="51"/>
+      <c r="B71" s="62"/>
+      <c r="C71" s="62"/>
+      <c r="D71" s="62"/>
+      <c r="E71" s="60"/>
+      <c r="F71" s="62"/>
+      <c r="G71" s="62"/>
+      <c r="H71" s="62"/>
       <c r="I71" s="8" t="s">
         <v>105</v>
       </c>
@@ -3005,15 +3006,15 @@
       </c>
     </row>
     <row r="72" spans="2:12" ht="15.5">
-      <c r="B72" s="51"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="51" t="s">
+      <c r="B72" s="62"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E72" s="51"/>
-      <c r="F72" s="51"/>
-      <c r="G72" s="51"/>
-      <c r="H72" s="51"/>
+      <c r="E72" s="62"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="62"/>
+      <c r="H72" s="62"/>
       <c r="I72" s="13" t="s">
         <v>16</v>
       </c>
@@ -3028,19 +3029,19 @@
       </c>
     </row>
     <row r="73" spans="2:12" ht="15.5">
-      <c r="B73" s="51"/>
-      <c r="C73" s="51"/>
-      <c r="D73" s="51" t="s">
+      <c r="B73" s="62"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="51"/>
-      <c r="F73" s="51"/>
-      <c r="G73" s="51"/>
-      <c r="H73" s="51"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="62"/>
+      <c r="H73" s="62"/>
       <c r="I73" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J73" s="59" t="s">
+      <c r="J73" s="52" t="s">
         <v>190</v>
       </c>
       <c r="K73" s="37" t="s">
@@ -3051,15 +3052,15 @@
       </c>
     </row>
     <row r="74" spans="2:12" ht="15.5">
-      <c r="B74" s="51"/>
-      <c r="C74" s="51" t="s">
+      <c r="B74" s="62"/>
+      <c r="C74" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="D74" s="51"/>
-      <c r="E74" s="51"/>
-      <c r="F74" s="51"/>
-      <c r="G74" s="51"/>
-      <c r="H74" s="51"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="62"/>
+      <c r="H74" s="62"/>
       <c r="I74" s="5" t="s">
         <v>12</v>
       </c>
@@ -3074,17 +3075,17 @@
       </c>
     </row>
     <row r="75" spans="2:12" ht="15.5">
-      <c r="B75" s="51"/>
-      <c r="C75" s="51"/>
-      <c r="D75" s="51"/>
-      <c r="E75" s="51"/>
-      <c r="F75" s="51"/>
-      <c r="G75" s="51"/>
-      <c r="H75" s="51"/>
+      <c r="B75" s="62"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="62"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="62"/>
+      <c r="G75" s="62"/>
+      <c r="H75" s="62"/>
       <c r="I75" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J75" s="57" t="s">
+      <c r="J75" s="50" t="s">
         <v>190</v>
       </c>
       <c r="K75" s="38" t="s">
@@ -3095,17 +3096,17 @@
       </c>
     </row>
     <row r="76" spans="2:12" ht="15.5">
-      <c r="B76" s="51"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="51"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="51"/>
-      <c r="G76" s="51"/>
-      <c r="H76" s="51"/>
+      <c r="B76" s="62"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="62"/>
+      <c r="E76" s="62"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="62"/>
+      <c r="H76" s="62"/>
       <c r="I76" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="J76" s="62" t="s">
+      <c r="J76" s="55" t="s">
         <v>190</v>
       </c>
       <c r="K76" s="39" t="s">
@@ -3116,21 +3117,21 @@
       </c>
     </row>
     <row r="77" spans="2:12" ht="15.5">
-      <c r="B77" s="51"/>
-      <c r="C77" s="51" t="s">
+      <c r="B77" s="62"/>
+      <c r="C77" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="D77" s="51" t="s">
+      <c r="D77" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="51"/>
-      <c r="F77" s="51"/>
-      <c r="G77" s="51"/>
-      <c r="H77" s="51"/>
+      <c r="E77" s="62"/>
+      <c r="F77" s="62"/>
+      <c r="G77" s="62"/>
+      <c r="H77" s="62"/>
       <c r="I77" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J77" s="59" t="s">
+      <c r="J77" s="52" t="s">
         <v>190</v>
       </c>
       <c r="K77" s="37" t="s">
@@ -3141,19 +3142,19 @@
       </c>
     </row>
     <row r="78" spans="2:12" ht="15.5">
-      <c r="B78" s="51"/>
-      <c r="C78" s="51"/>
-      <c r="D78" s="51" t="s">
+      <c r="B78" s="62"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="E78" s="51"/>
-      <c r="F78" s="51"/>
-      <c r="G78" s="51"/>
-      <c r="H78" s="51"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="62"/>
+      <c r="H78" s="62"/>
       <c r="I78" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J78" s="59" t="s">
+      <c r="J78" s="52" t="s">
         <v>190</v>
       </c>
       <c r="K78" s="37" t="s">
@@ -3164,23 +3165,23 @@
       </c>
     </row>
     <row r="79" spans="2:12" ht="15.5">
-      <c r="B79" s="51" t="s">
+      <c r="B79" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="C79" s="52" t="s">
+      <c r="C79" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="D79" s="52"/>
-      <c r="E79" s="52"/>
-      <c r="F79" s="51" t="s">
+      <c r="D79" s="60"/>
+      <c r="E79" s="60"/>
+      <c r="F79" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="G79" s="51"/>
-      <c r="H79" s="51"/>
+      <c r="G79" s="62"/>
+      <c r="H79" s="62"/>
       <c r="I79" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="J79" s="59" t="s">
+      <c r="J79" s="52" t="s">
         <v>190</v>
       </c>
       <c r="K79" s="37" t="s">
@@ -3191,15 +3192,15 @@
       </c>
     </row>
     <row r="80" spans="2:12" ht="15.5">
-      <c r="B80" s="51"/>
-      <c r="C80" s="52"/>
-      <c r="D80" s="52"/>
-      <c r="E80" s="52"/>
-      <c r="F80" s="51" t="s">
+      <c r="B80" s="62"/>
+      <c r="C80" s="60"/>
+      <c r="D80" s="60"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="G80" s="51"/>
-      <c r="H80" s="51"/>
+      <c r="G80" s="62"/>
+      <c r="H80" s="62"/>
       <c r="I80" s="13" t="s">
         <v>112</v>
       </c>
@@ -3214,15 +3215,15 @@
       </c>
     </row>
     <row r="81" spans="2:12" ht="15.5">
-      <c r="B81" s="51"/>
-      <c r="C81" s="52"/>
-      <c r="D81" s="52"/>
-      <c r="E81" s="52"/>
-      <c r="F81" s="51" t="s">
+      <c r="B81" s="62"/>
+      <c r="C81" s="60"/>
+      <c r="D81" s="60"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="G81" s="51"/>
-      <c r="H81" s="51"/>
+      <c r="G81" s="62"/>
+      <c r="H81" s="62"/>
       <c r="I81" s="13" t="s">
         <v>108</v>
       </c>
@@ -3237,17 +3238,17 @@
       </c>
     </row>
     <row r="82" spans="2:12" ht="15.5">
-      <c r="B82" s="51"/>
-      <c r="C82" s="52" t="s">
+      <c r="B82" s="62"/>
+      <c r="C82" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D82" s="52"/>
-      <c r="E82" s="52"/>
-      <c r="F82" s="51" t="s">
+      <c r="D82" s="60"/>
+      <c r="E82" s="60"/>
+      <c r="F82" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="G82" s="51"/>
-      <c r="H82" s="51"/>
+      <c r="G82" s="62"/>
+      <c r="H82" s="62"/>
       <c r="I82" s="24" t="s">
         <v>114</v>
       </c>
@@ -3262,21 +3263,21 @@
       </c>
     </row>
     <row r="83" spans="2:12" ht="15.5">
-      <c r="B83" s="51"/>
-      <c r="C83" s="52" t="s">
+      <c r="B83" s="62"/>
+      <c r="C83" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="D83" s="52"/>
-      <c r="E83" s="52"/>
-      <c r="F83" s="51" t="s">
+      <c r="D83" s="60"/>
+      <c r="E83" s="60"/>
+      <c r="F83" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="G83" s="51"/>
-      <c r="H83" s="51"/>
+      <c r="G83" s="62"/>
+      <c r="H83" s="62"/>
       <c r="I83" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="J83" s="59" t="s">
+      <c r="J83" s="52" t="s">
         <v>190</v>
       </c>
       <c r="K83" s="37" t="s">
@@ -3287,21 +3288,21 @@
       </c>
     </row>
     <row r="84" spans="2:12" ht="15.5">
-      <c r="B84" s="51"/>
-      <c r="C84" s="52" t="s">
+      <c r="B84" s="62"/>
+      <c r="C84" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="D84" s="52"/>
-      <c r="E84" s="52"/>
-      <c r="F84" s="51" t="s">
+      <c r="D84" s="60"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="G84" s="51"/>
-      <c r="H84" s="51"/>
+      <c r="G84" s="62"/>
+      <c r="H84" s="62"/>
       <c r="I84" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="J84" s="59" t="s">
+      <c r="J84" s="52" t="s">
         <v>190</v>
       </c>
       <c r="K84" s="40" t="s">
@@ -3312,15 +3313,15 @@
       </c>
     </row>
     <row r="85" spans="2:12" ht="15.5">
-      <c r="B85" s="51"/>
-      <c r="C85" s="52"/>
-      <c r="D85" s="52"/>
-      <c r="E85" s="52"/>
-      <c r="F85" s="51" t="s">
+      <c r="B85" s="62"/>
+      <c r="C85" s="60"/>
+      <c r="D85" s="60"/>
+      <c r="E85" s="60"/>
+      <c r="F85" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="G85" s="51"/>
-      <c r="H85" s="51"/>
+      <c r="G85" s="62"/>
+      <c r="H85" s="62"/>
       <c r="I85" s="13" t="s">
         <v>125</v>
       </c>
@@ -3335,19 +3336,19 @@
       </c>
     </row>
     <row r="86" spans="2:12" ht="15.5">
-      <c r="B86" s="51"/>
-      <c r="C86" s="52"/>
-      <c r="D86" s="52"/>
-      <c r="E86" s="52"/>
-      <c r="F86" s="51" t="s">
+      <c r="B86" s="62"/>
+      <c r="C86" s="60"/>
+      <c r="D86" s="60"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="G86" s="51"/>
-      <c r="H86" s="51"/>
+      <c r="G86" s="62"/>
+      <c r="H86" s="62"/>
       <c r="I86" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="J86" s="59" t="s">
+      <c r="J86" s="52" t="s">
         <v>190</v>
       </c>
       <c r="K86" s="40" t="s">
@@ -3358,21 +3359,21 @@
       </c>
     </row>
     <row r="87" spans="2:12" ht="15.5">
-      <c r="B87" s="51"/>
-      <c r="C87" s="52" t="s">
+      <c r="B87" s="62"/>
+      <c r="C87" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="D87" s="52"/>
-      <c r="E87" s="52"/>
-      <c r="F87" s="51" t="s">
+      <c r="D87" s="60"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="G87" s="51"/>
-      <c r="H87" s="51"/>
+      <c r="G87" s="62"/>
+      <c r="H87" s="62"/>
       <c r="I87" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="J87" s="59" t="s">
+      <c r="J87" s="52" t="s">
         <v>190</v>
       </c>
       <c r="K87" s="37" t="s">
@@ -3383,22 +3384,22 @@
       </c>
     </row>
     <row r="88" spans="2:12" ht="15.5">
-      <c r="B88" s="51"/>
-      <c r="C88" s="52"/>
-      <c r="D88" s="52"/>
-      <c r="E88" s="52"/>
-      <c r="F88" s="51" t="s">
+      <c r="B88" s="62"/>
+      <c r="C88" s="60"/>
+      <c r="D88" s="60"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="G88" s="51"/>
-      <c r="H88" s="51"/>
+      <c r="G88" s="62"/>
+      <c r="H88" s="62"/>
       <c r="I88" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="J88" s="59" t="s">
+      <c r="J88" s="52" t="s">
         <v>190</v>
       </c>
-      <c r="K88" s="60" t="s">
+      <c r="K88" s="53" t="s">
         <v>191</v>
       </c>
       <c r="L88" s="23">
@@ -3407,6 +3408,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="F3:F50"/>
+    <mergeCell ref="F51:H58"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="F59:H61"/>
+    <mergeCell ref="F64:H69"/>
+    <mergeCell ref="F70:H71"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="C87:E88"/>
+    <mergeCell ref="E64:E71"/>
+    <mergeCell ref="C3:C73"/>
+    <mergeCell ref="D72:H72"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="C74:H76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:H77"/>
+    <mergeCell ref="D78:H78"/>
+    <mergeCell ref="E3:E63"/>
+    <mergeCell ref="D3:D71"/>
+    <mergeCell ref="G3:G25"/>
+    <mergeCell ref="G26:H39"/>
+    <mergeCell ref="G40:H41"/>
+    <mergeCell ref="G42:H48"/>
+    <mergeCell ref="G49:H50"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="C79:E81"/>
     <mergeCell ref="C82:E82"/>
@@ -3423,36 +3454,6 @@
     <mergeCell ref="F79:H79"/>
     <mergeCell ref="F80:H80"/>
     <mergeCell ref="F81:H81"/>
-    <mergeCell ref="C87:E88"/>
-    <mergeCell ref="E64:E71"/>
-    <mergeCell ref="C3:C73"/>
-    <mergeCell ref="D72:H72"/>
-    <mergeCell ref="D73:H73"/>
-    <mergeCell ref="C74:H76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:H77"/>
-    <mergeCell ref="D78:H78"/>
-    <mergeCell ref="E3:E63"/>
-    <mergeCell ref="D3:D71"/>
-    <mergeCell ref="G3:G25"/>
-    <mergeCell ref="G26:H39"/>
-    <mergeCell ref="G40:H41"/>
-    <mergeCell ref="G42:H48"/>
-    <mergeCell ref="G49:H50"/>
-    <mergeCell ref="F82:H82"/>
-    <mergeCell ref="F59:H61"/>
-    <mergeCell ref="F64:H69"/>
-    <mergeCell ref="F70:H71"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="F3:F50"/>
-    <mergeCell ref="F51:H58"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="H23:H24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J22" r:id="rId1" xr:uid="{ECAF6964-5189-4CD2-B6D3-38C2CDEC0B01}"/>
